--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lta-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lta-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H2">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I2">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J2">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N2">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O2">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P2">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q2">
-        <v>3.066595831829778</v>
+        <v>9.697963237736889</v>
       </c>
       <c r="R2">
-        <v>27.599362486468</v>
+        <v>87.28166913963202</v>
       </c>
       <c r="S2">
-        <v>0.1264067468066238</v>
+        <v>0.1605644675454645</v>
       </c>
       <c r="T2">
-        <v>0.1264067468066238</v>
+        <v>0.1605644675454645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H3">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I3">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J3">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.648451</v>
       </c>
       <c r="O3">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P3">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q3">
-        <v>4.551316857707111</v>
+        <v>14.50527689344678</v>
       </c>
       <c r="R3">
-        <v>40.96185171936401</v>
+        <v>130.547492041021</v>
       </c>
       <c r="S3">
-        <v>0.1876077544022555</v>
+        <v>0.2401568250880804</v>
       </c>
       <c r="T3">
-        <v>0.1876077544022554</v>
+        <v>0.2401568250880804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H4">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I4">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J4">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N4">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O4">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P4">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q4">
-        <v>3.217584169547556</v>
+        <v>10.75122876186333</v>
       </c>
       <c r="R4">
-        <v>28.958257525928</v>
+        <v>96.76105885677001</v>
       </c>
       <c r="S4">
-        <v>0.1326305681457586</v>
+        <v>0.1780028733137279</v>
       </c>
       <c r="T4">
-        <v>0.1326305681457586</v>
+        <v>0.1780028733137279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H5">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I5">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J5">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N5">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O5">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P5">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q5">
-        <v>0.8033542910386667</v>
+        <v>2.921888744947333</v>
       </c>
       <c r="R5">
-        <v>7.230188619348001</v>
+        <v>26.296998704526</v>
       </c>
       <c r="S5">
-        <v>0.03311470047969997</v>
+        <v>0.04837629294509833</v>
       </c>
       <c r="T5">
-        <v>0.03311470047969997</v>
+        <v>0.04837629294509835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H6">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I6">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J6">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.03541933333333</v>
+        <v>10.21772833333333</v>
       </c>
       <c r="N6">
-        <v>48.106258</v>
+        <v>30.653185</v>
       </c>
       <c r="O6">
-        <v>0.228130995884431</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="P6">
-        <v>0.2281309958844309</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="Q6">
-        <v>3.439939535945778</v>
+        <v>6.985762090126112</v>
       </c>
       <c r="R6">
-        <v>30.959455823512</v>
+        <v>62.87185881113501</v>
       </c>
       <c r="S6">
-        <v>0.1417961771933073</v>
+        <v>0.1156598703154232</v>
       </c>
       <c r="T6">
-        <v>0.1417961771933073</v>
+        <v>0.1156598703154232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H7">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I7">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J7">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N7">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O7">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P7">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q7">
-        <v>1.867144801647556</v>
+        <v>2.470668018058667</v>
       </c>
       <c r="R7">
-        <v>16.804303214828</v>
+        <v>22.236012162528</v>
       </c>
       <c r="S7">
-        <v>0.07696472347069551</v>
+        <v>0.04090565050376206</v>
       </c>
       <c r="T7">
-        <v>0.07696472347069551</v>
+        <v>0.04090565050376206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H8">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I8">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J8">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>63.648451</v>
       </c>
       <c r="O8">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P8">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q8">
-        <v>2.771140403738223</v>
+        <v>3.695386632759334</v>
       </c>
       <c r="R8">
-        <v>24.940263633644</v>
+        <v>33.258479694834</v>
       </c>
       <c r="S8">
-        <v>0.1142279134880096</v>
+        <v>0.0611827218270723</v>
       </c>
       <c r="T8">
-        <v>0.1142279134880096</v>
+        <v>0.06118272182707229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H9">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I9">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J9">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N9">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O9">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P9">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q9">
-        <v>1.959076410943111</v>
+        <v>2.73899956162</v>
       </c>
       <c r="R9">
-        <v>17.631687698488</v>
+        <v>24.65099605458</v>
       </c>
       <c r="S9">
-        <v>0.08075419436840257</v>
+        <v>0.04534828555623647</v>
       </c>
       <c r="T9">
-        <v>0.08075419436840257</v>
+        <v>0.04534828555623647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H10">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I10">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J10">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N10">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O10">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P10">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q10">
-        <v>0.4891348161453334</v>
+        <v>0.744384866956</v>
       </c>
       <c r="R10">
-        <v>4.402213345308001</v>
+        <v>6.699463802604</v>
       </c>
       <c r="S10">
-        <v>0.02016240295412353</v>
+        <v>0.01232441873429736</v>
       </c>
       <c r="T10">
-        <v>0.02016240295412353</v>
+        <v>0.01232441873429736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.174178</v>
+      </c>
+      <c r="H11">
+        <v>0.5225340000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1892267629264251</v>
+      </c>
+      <c r="J11">
+        <v>0.1892267629264251</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.21772833333333</v>
+      </c>
+      <c r="N11">
+        <v>30.653185</v>
+      </c>
+      <c r="O11">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="P11">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="Q11">
+        <v>1.779703485643334</v>
+      </c>
+      <c r="R11">
+        <v>16.01733137079</v>
+      </c>
+      <c r="S11">
+        <v>0.0294656863050569</v>
+      </c>
+      <c r="T11">
+        <v>0.0294656863050569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.187812</v>
+      </c>
+      <c r="I12">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J12">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.18473066666667</v>
+      </c>
+      <c r="N12">
+        <v>42.554192</v>
+      </c>
+      <c r="O12">
+        <v>0.2161726484729168</v>
+      </c>
+      <c r="P12">
+        <v>0.2161726484729169</v>
+      </c>
+      <c r="Q12">
+        <v>0.8880208786559999</v>
+      </c>
+      <c r="R12">
+        <v>7.992187907903999</v>
+      </c>
+      <c r="S12">
+        <v>0.01470253042369025</v>
+      </c>
+      <c r="T12">
+        <v>0.01470253042369024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.187812</v>
+      </c>
+      <c r="I13">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J13">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.21615033333333</v>
+      </c>
+      <c r="N13">
+        <v>63.648451</v>
+      </c>
+      <c r="O13">
+        <v>0.3233301721219069</v>
+      </c>
+      <c r="P13">
+        <v>0.3233301721219069</v>
+      </c>
+      <c r="Q13">
+        <v>1.328215875468</v>
+      </c>
+      <c r="R13">
+        <v>11.953942879212</v>
+      </c>
+      <c r="S13">
+        <v>0.0219906252067542</v>
+      </c>
+      <c r="T13">
+        <v>0.0219906252067542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.1306146666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.391844</v>
-      </c>
-      <c r="I11">
-        <v>0.3784440529723549</v>
-      </c>
-      <c r="J11">
-        <v>0.3784440529723548</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>16.03541933333333</v>
-      </c>
-      <c r="N11">
-        <v>48.106258</v>
-      </c>
-      <c r="O11">
-        <v>0.228130995884431</v>
-      </c>
-      <c r="P11">
-        <v>0.2281309958844309</v>
-      </c>
-      <c r="Q11">
-        <v>2.094460951083556</v>
-      </c>
-      <c r="R11">
-        <v>18.850148559752</v>
-      </c>
-      <c r="S11">
-        <v>0.08633481869112367</v>
-      </c>
-      <c r="T11">
-        <v>0.08633481869112365</v>
+      <c r="G14">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.187812</v>
+      </c>
+      <c r="I14">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J14">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.72529</v>
+      </c>
+      <c r="N14">
+        <v>47.17587</v>
+      </c>
+      <c r="O14">
+        <v>0.2396504852427705</v>
+      </c>
+      <c r="P14">
+        <v>0.2396504852427705</v>
+      </c>
+      <c r="Q14">
+        <v>0.9844660551599999</v>
+      </c>
+      <c r="R14">
+        <v>8.860194496439998</v>
+      </c>
+      <c r="S14">
+        <v>0.01629932637280614</v>
+      </c>
+      <c r="T14">
+        <v>0.01629932637280613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.187812</v>
+      </c>
+      <c r="I15">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J15">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.273701999999999</v>
+      </c>
+      <c r="N15">
+        <v>12.821106</v>
+      </c>
+      <c r="O15">
+        <v>0.0651304210022835</v>
+      </c>
+      <c r="P15">
+        <v>0.06513042100228351</v>
+      </c>
+      <c r="Q15">
+        <v>0.2675508400079999</v>
+      </c>
+      <c r="R15">
+        <v>2.407957560072</v>
+      </c>
+      <c r="S15">
+        <v>0.004429709322887802</v>
+      </c>
+      <c r="T15">
+        <v>0.004429709322887802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.187812</v>
+      </c>
+      <c r="I16">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J16">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.21772833333333</v>
+      </c>
+      <c r="N16">
+        <v>30.653185</v>
+      </c>
+      <c r="O16">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="P16">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="Q16">
+        <v>0.63967066458</v>
+      </c>
+      <c r="R16">
+        <v>5.75703598122</v>
+      </c>
+      <c r="S16">
+        <v>0.0105907165396421</v>
+      </c>
+      <c r="T16">
+        <v>0.0105907165396421</v>
       </c>
     </row>
   </sheetData>
